--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>FirstName</t>
   </si>
@@ -23,25 +23,19 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Phone</t>
+    <t>password</t>
   </si>
   <si>
-    <t>Zip</t>
+    <t>Simon</t>
   </si>
   <si>
-    <t>Justen</t>
+    <t>Friesen</t>
   </si>
   <si>
-    <t>Gulgowski</t>
+    <t>randy.okeefe@gmail.com</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>1236410</t>
-  </si>
-  <si>
-    <t>1616</t>
+    <t>6t6agko</t>
   </si>
 </sst>
 </file>
@@ -86,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -105,25 +99,19 @@
       <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>7</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -23,19 +23,19 @@
     <t>Email</t>
   </si>
   <si>
-    <t>password</t>
+    <t>Password</t>
   </si>
   <si>
-    <t>Simon</t>
+    <t>Carlee</t>
   </si>
   <si>
-    <t>Friesen</t>
+    <t>Roob</t>
   </si>
   <si>
-    <t>randy.okeefe@gmail.com</t>
+    <t>loida.bauch@yahoo.com</t>
   </si>
   <si>
-    <t>6t6agko</t>
+    <t>5jjtyvvi9</t>
   </si>
 </sst>
 </file>
